--- a/biology/Médecine/Ludolf_von_Krehl/Ludolf_von_Krehl.xlsx
+++ b/biology/Médecine/Ludolf_von_Krehl/Ludolf_von_Krehl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albrecht Ludolf von Krehl (né le 26 décembre 1861 à Leipzig, mort le 26 mai 1937 à Heidelberg), anobli en 1904, est un médecin allemand.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Krehl est le fils de Ludolf Krehl, professeur d'orientalisme à l'Université de Leipzig. De 1881 à 1886, il étudie à, Iéna, Heidelberg et Berlin et soutient en 1886 sa thèse de doctorat à Leipzig. Pendant ses études de médecine à Heidelberg, Krehl est membre de la Burschenschaft (Burschenschaft) Frankonia. De 1886 à 1892 il est l'assistant de Ernst L. Wagner (de) et de Heinrich Curschmann à l'hôpital universitaire de Leipzig où il passe son habilitation en médecine interne en 1888.
 Par la suite, il travaille à l'hôpital de Iéna en 1892, puis Marbourg en 1899 et Greifswald et 1900. En 1902 il devient responsable à la clinique de Tübingen, en 1904 à Strasbourg et 1907 à Heidelberg. En 1922, il y met en place un nouvel hôpital qui est à l'origine du Kaiser-Wilhelm-Instituts für Medizinische Forschung (aujourd'hui Institut Max-Planck de recherche médicale). En 1931, il devient professeur émérite et prend la direction du département de pathologie de l'institut.
-Pendant le Troisième Reich, il est membre du NSDAP (plus précisément du Nationalsozialistischer Lehrerbund)[1].
+Pendant le Troisième Reich, il est membre du NSDAP (plus précisément du Nationalsozialistischer Lehrerbund).
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1931 : anobli
 1925 : Pour le Mérite
 1926 : membre de l'Académie allemande des sciences Leopoldina
 1927 : Docteur honoris causa de la faculté de théologie protestante de Tübingen
-1936 : Décoré du bouclier de l'aigle du Reich allemand par Adolf Hitler[1]</t>
+1936 : Décoré du bouclier de l'aigle du Reich allemand par Adolf Hitler</t>
         </is>
       </c>
     </row>
